--- a/quizapp/src/school/10/tamil/10_tamil_U01_01.xlsx
+++ b/quizapp/src/school/10/tamil/10_tamil_U01_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2020\git\quiz_app\quizapp\src\school\10\tamil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7685C07-1E86-4E6B-B9E6-BE4EB4E6D5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8543D1-8833-4236-BB4C-E567E45ED655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>question_no</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>தமிழ்ச்சொல் வளம் - இலை</t>
+  </si>
+  <si>
+    <t>What is Linear momentum</t>
+  </si>
+  <si>
+    <t>mass * acceleration</t>
+  </si>
+  <si>
+    <t>mass * voumn</t>
+  </si>
+  <si>
+    <t>mass * velocity 
+p = mv</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>The product of mass and velocity of a
+moving body gives the magnitude of linear
+momentum.</t>
   </si>
 </sst>
 </file>
@@ -201,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC3B16F9-864E-40CC-9B1D-9EF8D5B61833}" name="Table1" displayName="Table1" ref="A1:L7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L7" xr:uid="{01128726-D8EB-4478-87C8-06D800182376}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FC3B16F9-864E-40CC-9B1D-9EF8D5B61833}" name="Table1" displayName="Table1" ref="A1:L9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L9" xr:uid="{01128726-D8EB-4478-87C8-06D800182376}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{CA3E8843-88ED-45A8-A09F-687D81E8CE9A}" name="question_no" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{E75047AF-051D-469B-A11A-863FEE9CA5E1}" name="question" dataDxfId="10"/>
@@ -484,16 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="21.109375" style="1" customWidth="1"/>
@@ -735,6 +756,40 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
